--- a/8314.xlsx
+++ b/8314.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RNN_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4C72ED2B-76B1-4C05-863D-5296A8EA910A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3ED3AA-7F29-40D2-86A9-A9D215B173F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dsas12_main_trans_8312_8314" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,7 +522,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -874,14 +877,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -890,7 +896,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -35956,5 +35962,6 @@
     <sortCondition ref="A1:A3188"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>